--- a/results/mp/logistic/corona/confidence/210/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,33 +40,33 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -85,9 +85,6 @@
     <t>oil</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -118,73 +115,67 @@
     <t>special</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>increase</t>
   </si>
   <si>
     <t>corona</t>
@@ -545,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -685,16 +676,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -706,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -714,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7945205479452054</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C5">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D5">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -756,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -764,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7368421052631579</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -832,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8224543080939948</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L7">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M7">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,7 +876,7 @@
         <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8">
         <v>0.8181818181818182</v>
@@ -914,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.576271186440678</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9">
         <v>0.8055555555555556</v>
@@ -964,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5555555555555556</v>
+        <v>0.5503875968992248</v>
       </c>
       <c r="C10">
-        <v>105</v>
+        <v>284</v>
       </c>
       <c r="D10">
-        <v>105</v>
+        <v>284</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -982,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8048780487804879</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L10">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="M10">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1006,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1014,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5368217054263565</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C11">
-        <v>277</v>
+        <v>102</v>
       </c>
       <c r="D11">
-        <v>277</v>
+        <v>102</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1032,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>239</v>
+        <v>87</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.7924528301886793</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1056,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5167785234899329</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C12">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1082,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.7887323943661971</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1106,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1114,13 +1105,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4533333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1132,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.78125</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1156,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1164,13 +1155,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3111111111111111</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1182,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1206,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1214,13 +1205,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.257936507936508</v>
+        <v>0.2658730158730159</v>
       </c>
       <c r="C15">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D15">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1232,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.7758620689655172</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1256,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1264,13 +1255,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1715817694369973</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="C16">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D16">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1282,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7734375</v>
       </c>
       <c r="L16">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M16">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1306,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1314,13 +1305,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.09666666666666666</v>
+        <v>0.09</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1332,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.725</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1356,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1364,13 +1355,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.02243313201035375</v>
+        <v>0.01643570737995488</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E18">
         <v>0.07000000000000001</v>
@@ -1382,19 +1373,19 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1133</v>
+        <v>3052</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.723404255319149</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1406,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1414,87 +1405,63 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01547887778136085</v>
+        <v>0.01310861423220974</v>
       </c>
       <c r="C19">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E19">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="F19">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>3053</v>
+        <v>2108</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L19">
+        <v>45</v>
+      </c>
+      <c r="M19">
+        <v>45</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K19">
-        <v>0.7209302325581395</v>
-      </c>
-      <c r="L19">
-        <v>31</v>
-      </c>
-      <c r="M19">
-        <v>31</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.01313320825515948</v>
-      </c>
-      <c r="C20">
-        <v>28</v>
-      </c>
-      <c r="D20">
-        <v>39</v>
-      </c>
-      <c r="E20">
-        <v>0.28</v>
-      </c>
-      <c r="F20">
-        <v>0.72</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>2104</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1506,21 +1473,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.675</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1532,21 +1499,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.6825396825396826</v>
+        <v>0.6735294117647059</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1558,21 +1525,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.6441176470588236</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L23">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="M23">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1584,30 +1551,30 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>121</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.6135593220338983</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L24">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M24">
         <v>181</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
         <v>114</v>
@@ -1615,16 +1582,16 @@
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.5983263598326359</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L25">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="M25">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1636,21 +1603,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>96</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1662,21 +1629,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.574468085106383</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L27">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1688,21 +1655,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.5538461538461539</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1714,21 +1681,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.5428571428571428</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1740,21 +1707,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.5168539325842697</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1766,84 +1733,32 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.5098039215686274</v>
+        <v>0.009748427672955974</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32">
-        <v>0.3835616438356164</v>
-      </c>
-      <c r="L32">
-        <v>28</v>
-      </c>
-      <c r="M32">
-        <v>28</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K33">
-        <v>0.009748427672955974</v>
-      </c>
-      <c r="L33">
-        <v>31</v>
-      </c>
-      <c r="M33">
-        <v>52</v>
-      </c>
-      <c r="N33">
-        <v>0.6</v>
-      </c>
-      <c r="O33">
-        <v>0.4</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33">
         <v>3149</v>
       </c>
     </row>
